--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value44.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value44.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6010564573244231</v>
+        <v>1.734267234802246</v>
       </c>
       <c r="B1">
-        <v>0.8268373735304744</v>
+        <v>2.463452577590942</v>
       </c>
       <c r="C1">
-        <v>1.437750336641966</v>
+        <v>4.84526252746582</v>
       </c>
       <c r="D1">
-        <v>3.499408077613104</v>
+        <v>4.447070598602295</v>
       </c>
       <c r="E1">
-        <v>2.652067227337991</v>
+        <v>1.261392831802368</v>
       </c>
     </row>
   </sheetData>
